--- a/Financial Services/CME Group.xlsx
+++ b/Financial Services/CME Group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6E85BB-5CB6-554F-9688-96398B7804A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1396E3A3-19AF-3649-AF3D-68EDF8DD67C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1008,6 +1008,13 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1020,13 +1027,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2384,13 +2384,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>240.602</v>
+    <v>206.58369999999999</v>
     <v>162.25530000000001</v>
-    <v>0.41620000000000001</v>
-    <v>-0.09</v>
-    <v>-4.6109999999999999E-4</v>
-    <v>0.51</v>
-    <v>2.614E-3</v>
+    <v>0.41420000000000001</v>
+    <v>-1.06</v>
+    <v>-5.7079999999999995E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>CME Group Inc. provides products across all asset classes, by trading futures, options, cash and over-the-counter (OTC) products. The Company offers a range of interest rates, equity indexes, foreign exchange (FX), agricultural commodities, energy and metals. It also offers cash and repo fixed income trading through BrokerTec, and cash and OTC FX trading through electronic broking services (EBS). The Company’s operations comprise of the businesses of Chicago Mercantile Exchange Inc. (CME), the Board of Trade of the City of Chicago, Inc. (CBOT), New York Mercantile Exchange, Inc. (NYMEX) and Commodity Exchange, Inc. (COMEX) and its cash markets business. In addition, it operates central counterparty clearing houses. The Company offers clearing, settlement and guarantees for all products cleared through the clearing house. It provides clearing and settlement services for a range of exchange-traded futures and options on futures contracts and OTC derivatives.</v>
     <v>3460</v>
@@ -2398,25 +2398,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>20 S Wacker Dr, CHICAGO, IL, 60606 US</v>
-    <v>196.3</v>
+    <v>186.38</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45022.978680601562</v>
+    <v>45055.842916805472</v>
     <v>0</v>
-    <v>193.78</v>
-    <v>70185230000</v>
+    <v>184.56</v>
+    <v>66414088135</v>
     <v>CME GROUP INC.</v>
     <v>CME GROUP INC.</v>
-    <v>195.3</v>
-    <v>26.401299999999999</v>
-    <v>195.19</v>
-    <v>195.1</v>
-    <v>195.61</v>
-    <v>359739700</v>
+    <v>185.69</v>
+    <v>23.585100000000001</v>
+    <v>185.69</v>
+    <v>184.63</v>
+    <v>184.63</v>
+    <v>359714500</v>
     <v>CME</v>
     <v>CME GROUP INC. (XNAS:CME)</v>
-    <v>1370087</v>
-    <v>1985947</v>
+    <v>722194</v>
+    <v>1299485</v>
     <v>2001</v>
   </rv>
   <rv s="2">
@@ -3004,10 +3004,10 @@
   <dimension ref="A1:AG118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA101" sqref="AA101"/>
+      <selection pane="bottomRight" activeCell="Z95" sqref="Z95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4461,15 +4461,15 @@
       </c>
       <c r="AE16" s="30">
         <f>AF101/X3</f>
-        <v>13.982792764075388</v>
+        <v>13.231479486592024</v>
       </c>
       <c r="AF16" s="30">
         <f>AF101/X28</f>
-        <v>26.081467855815681</v>
+        <v>24.680077344853213</v>
       </c>
       <c r="AG16" s="31">
         <f>AF101/X106</f>
-        <v>22.966371073298429</v>
+        <v>21.732358682918846</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -9519,10 +9519,10 @@
       <c r="X83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE83" s="58" t="s">
+      <c r="AE83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="AF83" s="59"/>
+      <c r="AF83" s="62"/>
     </row>
     <row r="84" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9597,10 +9597,10 @@
       <c r="X84" s="1">
         <v>72500000</v>
       </c>
-      <c r="AE84" s="60" t="s">
+      <c r="AE84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AF84" s="61"/>
+      <c r="AF84" s="64"/>
     </row>
     <row r="85" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10346,10 +10346,10 @@
       <c r="X93" s="1">
         <v>-502800000</v>
       </c>
-      <c r="AE93" s="60" t="s">
+      <c r="AE93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AF93" s="61"/>
+      <c r="AF93" s="64"/>
     </row>
     <row r="94" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10509,7 +10509,7 @@
       </c>
       <c r="AF95" s="38" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
-        <v>0.41620000000000001</v>
+        <v>0.41420000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10670,7 +10670,7 @@
       </c>
       <c r="AF97" s="36">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>5.8867410000000002E-2</v>
+        <v>5.8781310000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10746,10 +10746,10 @@
       <c r="X98" s="1">
         <v>-2633500000</v>
       </c>
-      <c r="AE98" s="60" t="s">
+      <c r="AE98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AF98" s="61"/>
+      <c r="AF98" s="64"/>
     </row>
     <row r="99" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10910,7 +10910,7 @@
       </c>
       <c r="AF100" s="34">
         <f>AF99/AF103</f>
-        <v>4.6702397042905928E-2</v>
+        <v>4.9223729774017448E-2</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="AF101" s="39" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
-        <v>70185230000</v>
+        <v>66414088135</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11072,7 +11072,7 @@
       </c>
       <c r="AF102" s="34">
         <f>AF101/AF103</f>
-        <v>0.95329760295709409</v>
+        <v>0.95077627022598254</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="AF103" s="40">
         <f>AF99+AF101</f>
-        <v>73623630000</v>
+        <v>69852488135</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11229,10 +11229,10 @@
       <c r="X104" s="11">
         <v>137974300000</v>
       </c>
-      <c r="AE104" s="60" t="s">
+      <c r="AE104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AF104" s="61"/>
+      <c r="AF104" s="64"/>
     </row>
     <row r="105" spans="1:32" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11338,7 +11338,7 @@
       </c>
       <c r="AF105" s="26">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>5.7821971253751568E-2</v>
+        <v>5.7683669081994661E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11476,7 +11476,7 @@
       <c r="AB107" s="42"/>
       <c r="AC107" s="45">
         <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>120244052592.34003</v>
+        <v>120752869811.50389</v>
       </c>
       <c r="AD107" s="46" t="s">
         <v>148</v>
@@ -11507,7 +11507,7 @@
       </c>
       <c r="AC108" s="45">
         <f>AC107+AC106</f>
-        <v>124094439750.99405</v>
+        <v>124603256970.15791</v>
       </c>
       <c r="AD108" s="46" t="s">
         <v>144</v>
@@ -11517,14 +11517,14 @@
       </c>
       <c r="AF108" s="50">
         <f>AF105</f>
-        <v>5.7821971253751568E-2</v>
+        <v>5.7683669081994661E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y109" s="62" t="s">
+      <c r="Y109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="Z109" s="63"/>
+      <c r="Z109" s="60"/>
     </row>
     <row r="110" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="Y110" s="51" t="s">
@@ -11532,7 +11532,7 @@
       </c>
       <c r="Z110" s="39">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>105612145834.73093</v>
+        <v>106061693713.08441</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="Z113" s="39">
         <f>Z110+Z111-Z112</f>
-        <v>104989845834.73093</v>
+        <v>105439393713.08441</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11575,9 +11575,9 @@
       <c r="Y115" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="Z115" s="64">
+      <c r="Z115" s="58">
         <f>Z113/Z114</f>
-        <v>277.02893053430296</v>
+        <v>278.21511922687682</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11586,7 +11586,7 @@
       </c>
       <c r="Z116" s="54" cm="1">
         <f t="array" ref="Z116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>195.61</v>
+        <v>184.63</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11595,7 +11595,7 @@
       </c>
       <c r="Z117" s="56">
         <f>Z115/Z116-1</f>
-        <v>0.41623092139616036</v>
+        <v>0.50687926787020987</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">

--- a/Financial Services/CME Group.xlsx
+++ b/Financial Services/CME Group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1396E3A3-19AF-3649-AF3D-68EDF8DD67C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162AE086-EFFB-474D-9839-818E9BF24572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2384,13 +2384,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>206.58369999999999</v>
+    <v>209.31</v>
     <v>162.25530000000001</v>
-    <v>0.41420000000000001</v>
-    <v>-1.06</v>
-    <v>-5.7079999999999995E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>0.4158</v>
+    <v>-0.27</v>
+    <v>-1.305E-3</v>
     <v>USD</v>
     <v>CME Group Inc. provides products across all asset classes, by trading futures, options, cash and over-the-counter (OTC) products. The Company offers a range of interest rates, equity indexes, foreign exchange (FX), agricultural commodities, energy and metals. It also offers cash and repo fixed income trading through BrokerTec, and cash and OTC FX trading through electronic broking services (EBS). The Company’s operations comprise of the businesses of Chicago Mercantile Exchange Inc. (CME), the Board of Trade of the City of Chicago, Inc. (CBOT), New York Mercantile Exchange, Inc. (NYMEX) and Commodity Exchange, Inc. (COMEX) and its cash markets business. In addition, it operates central counterparty clearing houses. The Company offers clearing, settlement and guarantees for all products cleared through the clearing house. It provides clearing and settlement services for a range of exchange-traded futures and options on futures contracts and OTC derivatives.</v>
     <v>3460</v>
@@ -2398,25 +2396,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>20 S Wacker Dr, CHICAGO, IL, 60606 US</v>
-    <v>186.38</v>
+    <v>207.66</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45055.842916805472</v>
+    <v>45187.975299108592</v>
     <v>0</v>
-    <v>184.56</v>
-    <v>66414088135</v>
+    <v>206.04</v>
+    <v>74305577610</v>
     <v>CME GROUP INC.</v>
     <v>CME GROUP INC.</v>
-    <v>185.69</v>
-    <v>23.585100000000001</v>
-    <v>185.69</v>
-    <v>184.63</v>
-    <v>184.63</v>
-    <v>359714500</v>
+    <v>207.32</v>
+    <v>25.224699999999999</v>
+    <v>206.82</v>
+    <v>206.55</v>
+    <v>359746200</v>
     <v>CME</v>
     <v>CME GROUP INC. (XNAS:CME)</v>
-    <v>722194</v>
-    <v>1299485</v>
+    <v>1</v>
+    <v>1260176</v>
     <v>2001</v>
   </rv>
   <rv s="2">
@@ -2448,8 +2445,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2470,7 +2465,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2487,7 +2481,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2498,16 +2492,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2573,19 +2564,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2630,9 +2615,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2640,9 +2622,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3007,7 +2986,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="U83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z95" sqref="Z95"/>
+      <selection pane="bottomRight" activeCell="AA96" sqref="AA96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4461,15 +4440,15 @@
       </c>
       <c r="AE16" s="30">
         <f>AF101/X3</f>
-        <v>13.231479486592024</v>
+        <v>14.803677254253497</v>
       </c>
       <c r="AF16" s="30">
         <f>AF101/X28</f>
-        <v>24.680077344853213</v>
+        <v>27.612626387959867</v>
       </c>
       <c r="AG16" s="31">
         <f>AF101/X106</f>
-        <v>21.732358682918846</v>
+        <v>24.314652359293195</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10509,7 +10488,7 @@
       </c>
       <c r="AF95" s="38" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
-        <v>0.41420000000000001</v>
+        <v>0.4158</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10670,7 +10649,7 @@
       </c>
       <c r="AF97" s="36">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>5.8781310000000003E-2</v>
+        <v>5.8850190000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10910,7 +10889,7 @@
       </c>
       <c r="AF100" s="34">
         <f>AF99/AF103</f>
-        <v>4.9223729774017448E-2</v>
+        <v>4.4227219981573564E-2</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10991,7 +10970,7 @@
       </c>
       <c r="AF101" s="39" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
-        <v>66414088135</v>
+        <v>74305577610</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11072,7 +11051,7 @@
       </c>
       <c r="AF102" s="34">
         <f>AF101/AF103</f>
-        <v>0.95077627022598254</v>
+        <v>0.95577278001842647</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11153,7 +11132,7 @@
       </c>
       <c r="AF103" s="40">
         <f>AF99+AF101</f>
-        <v>69852488135</v>
+        <v>77743977610</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11338,7 +11317,7 @@
       </c>
       <c r="AF105" s="26">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>5.7683669081994661E-2</v>
+        <v>5.7860919981179072E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11476,7 +11455,7 @@
       <c r="AB107" s="42"/>
       <c r="AC107" s="45">
         <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>120752869811.50389</v>
+        <v>120101532150.67619</v>
       </c>
       <c r="AD107" s="46" t="s">
         <v>148</v>
@@ -11507,7 +11486,7 @@
       </c>
       <c r="AC108" s="45">
         <f>AC107+AC106</f>
-        <v>124603256970.15791</v>
+        <v>123951919309.33022</v>
       </c>
       <c r="AD108" s="46" t="s">
         <v>144</v>
@@ -11517,7 +11496,7 @@
       </c>
       <c r="AF108" s="50">
         <f>AF105</f>
-        <v>5.7683669081994661E-2</v>
+        <v>5.7860919981179072E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11532,7 +11511,7 @@
       </c>
       <c r="Z110" s="39">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>106061693713.08441</v>
+        <v>105486227069.20229</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11559,7 +11538,7 @@
       </c>
       <c r="Z113" s="39">
         <f>Z110+Z111-Z112</f>
-        <v>105439393713.08441</v>
+        <v>104863927069.20229</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11577,7 +11556,7 @@
       </c>
       <c r="Z115" s="58">
         <f>Z113/Z114</f>
-        <v>278.21511922687682</v>
+        <v>276.69667801339244</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11585,8 +11564,8 @@
         <v>157</v>
       </c>
       <c r="Z116" s="54" cm="1">
-        <f t="array" ref="Z116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>184.63</v>
+        <f t="array" ref="Z116">_FV(A1,"Price",TRUE)</f>
+        <v>206.55</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11595,7 +11574,7 @@
       </c>
       <c r="Z117" s="56">
         <f>Z115/Z116-1</f>
-        <v>0.50687926787020987</v>
+        <v>0.33961112570027807</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
